--- a/DOCUMENTAÇÃO BANCO DASHBOARD.xlsx
+++ b/DOCUMENTAÇÃO BANCO DASHBOARD.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>DOCUMENTAÇÃO DO DASHBOARD</t>
   </si>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t>SALDO</t>
+  </si>
+  <si>
+    <t>VW_CONTAS_PAGAR</t>
+  </si>
+  <si>
+    <t>Lista todas as obrigações que ainda possuem saldo com suas datas de vencimento e emissão</t>
+  </si>
+  <si>
+    <t>OB_ID, SALDO, DATA_VENCIMENTO, DATA_EMISSAO, DC_ID, LJ_ID</t>
+  </si>
+  <si>
+    <t>OB_TI</t>
+  </si>
+  <si>
+    <t>PR_TOTAL_CONTAS_PAGAR</t>
+  </si>
+  <si>
+    <t>Retorna o valor total da soma das obrigações com saldo em aberto. Pode retornar por data de emissão, data de vencimento e todas as que estiverem em aberto, indepententemente do período</t>
   </si>
 </sst>
 </file>
@@ -328,15 +346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -355,15 +364,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -374,6 +374,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,7 +677,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,12 +692,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="G1" s="1"/>
       <c r="K1" s="1"/>
       <c r="O1" s="1"/>
@@ -702,16 +720,16 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="5"/>
@@ -719,16 +737,16 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="5"/>
@@ -736,16 +754,16 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="5"/>
@@ -753,117 +771,125 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="5"/>
       <c r="K6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="K7" s="5"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="G8" s="5"/>
       <c r="K8" s="5"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="G9" s="5"/>
       <c r="K9" s="5"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="G10" s="5"/>
       <c r="K10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="G11" s="3"/>
       <c r="K11" s="3"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="G12" s="3"/>
       <c r="K12" s="3"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="G13" s="1"/>
       <c r="K13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="G14" s="1"/>
       <c r="K14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="G15" s="1"/>
       <c r="K15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="G16" s="1"/>
       <c r="K16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="G17" s="1"/>
       <c r="K17" s="1"/>
       <c r="O17" s="1"/>
@@ -982,7 +1008,7 @@
   <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,16 +1022,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1022,1492 +1048,1502 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
     </row>
     <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
     </row>
     <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
     </row>
     <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
     </row>
     <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
     </row>
     <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
     </row>
     <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
     </row>
     <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
     </row>
     <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
     </row>
     <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
     </row>
     <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
     </row>
     <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
     </row>
     <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
     </row>
     <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
     </row>
     <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
     </row>
     <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
     </row>
     <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
     </row>
     <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
     </row>
     <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
     </row>
     <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
     </row>
     <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
     </row>
     <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
     </row>
     <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
     </row>
     <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
     </row>
     <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
     </row>
     <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
     </row>
     <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
     </row>
     <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
     </row>
     <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
     </row>
     <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
     </row>
     <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
     </row>
     <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
     </row>
     <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
     </row>
     <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
     </row>
     <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
     </row>
     <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
     </row>
     <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
     </row>
     <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
     </row>
     <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
     </row>
     <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
     </row>
     <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="25"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
     </row>
     <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
     </row>
     <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="25"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
     </row>
     <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
     </row>
     <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="25"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
     </row>
     <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
     </row>
     <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
     </row>
     <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
     </row>
     <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
     </row>
     <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
     </row>
     <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
     </row>
     <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
     </row>
     <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="25"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
     </row>
     <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
     </row>
     <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
     </row>
     <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
     </row>
     <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
     </row>
     <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="25"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
     </row>
     <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="25"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
     </row>
     <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A152" s="25"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
     </row>
     <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="25"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
     </row>
     <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="25"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
     </row>
     <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="25"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
     </row>
     <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="25"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
     </row>
     <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="25"/>
-      <c r="B157" s="25"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
     </row>
     <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A158" s="25"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
     </row>
     <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="25"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
     </row>
     <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="25"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
     </row>
     <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A161" s="25"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
     </row>
     <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
     </row>
     <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
     </row>
     <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="25"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
     </row>
     <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="25"/>
-      <c r="B165" s="25"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
     </row>
     <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A166" s="25"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
     </row>
     <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="25"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
     </row>
     <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
     </row>
     <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="25"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
     </row>
     <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
     </row>
     <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="25"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
     </row>
     <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A172" s="25"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
     </row>
     <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
     </row>
     <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
     </row>
     <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
     </row>
     <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
     </row>
     <row r="177" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
     </row>
     <row r="178" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
     </row>
     <row r="179" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="25"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
     </row>
     <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="25"/>
-      <c r="B180" s="25"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
     </row>
     <row r="181" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="25"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
     </row>
     <row r="182" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="25"/>
-      <c r="B182" s="25"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
     </row>
     <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A183" s="25"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
     </row>
     <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
     </row>
     <row r="185" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="25"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
     </row>
     <row r="186" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
     </row>
     <row r="187" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="25"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
     </row>
     <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="25"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
     </row>
     <row r="189" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="25"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
     </row>
     <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A190" s="25"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
     </row>
     <row r="191" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="25"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
     </row>
     <row r="192" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="25"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
     </row>
     <row r="193" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="25"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
     </row>
     <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="25"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
     </row>
     <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="25"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
     </row>
     <row r="196" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
     </row>
     <row r="197" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A197" s="25"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
     </row>
     <row r="198" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A198" s="25"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
     </row>
     <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="25"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
     </row>
     <row r="200" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A200" s="25"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
     </row>
     <row r="201" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A201" s="25"/>
-      <c r="B201" s="25"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
+      <c r="A201" s="19"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
     </row>
     <row r="202" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="25"/>
-      <c r="B202" s="25"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="20"/>
     </row>
     <row r="203" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="25"/>
-      <c r="B203" s="25"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
+      <c r="A203" s="19"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
     </row>
     <row r="204" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="25"/>
-      <c r="B204" s="25"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="20"/>
     </row>
     <row r="205" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A205" s="25"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
     </row>
     <row r="206" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DOCUMENTAÇÃO BANCO DASHBOARD.xlsx
+++ b/DOCUMENTAÇÃO BANCO DASHBOARD.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VIEWS" sheetId="1" r:id="rId1"/>
     <sheet name="PROCEDURES" sheetId="2" r:id="rId2"/>
+    <sheet name="INDEX" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>DOCUMENTAÇÃO DO DASHBOARD</t>
   </si>
@@ -76,9 +77,6 @@
   </si>
   <si>
     <t>PROCEDURES DO DASHBOARD</t>
-  </si>
-  <si>
-    <t>NOMDE DA PROCEDURE</t>
   </si>
   <si>
     <t>PARÂMETROS</t>
@@ -186,13 +184,107 @@
   </si>
   <si>
     <t>Retorna o valor total da soma das obrigações com saldo em aberto. Pode retornar por data de emissão, data de vencimento e todas as que estiverem em aberto, indepententemente do período</t>
+  </si>
+  <si>
+    <t>NOME DA PROCEDURE</t>
+  </si>
+  <si>
+    <t>NOME DO INDEX</t>
+  </si>
+  <si>
+    <t>TABELA</t>
+  </si>
+  <si>
+    <t>SAI_MT_CAB</t>
+  </si>
+  <si>
+    <t>CAMPOS DO INDEX</t>
+  </si>
+  <si>
+    <t>(CL_CANC, DC_ID, SAI_ORG)</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>COMPOSTO</t>
+  </si>
+  <si>
+    <t>COLUNAS DO INCLUDE</t>
+  </si>
+  <si>
+    <t>QUERY/NECESSIDADE</t>
+  </si>
+  <si>
+    <t>IDX_SAI_MT_CAB.COMP</t>
+  </si>
+  <si>
+    <t>IDX_NF_STATUS_COMPOSTO</t>
+  </si>
+  <si>
+    <t>NF_STATUS</t>
+  </si>
+  <si>
+    <t>(SAI_ID, STA_ST)</t>
+  </si>
+  <si>
+    <t>IDX_CAD_DC.DC_DV</t>
+  </si>
+  <si>
+    <t>CAD_DC</t>
+  </si>
+  <si>
+    <t>(DC_DV)</t>
+  </si>
+  <si>
+    <t>DC_ID</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>IDX_SAI_MT_MAT.SAI_ID-CUSTO</t>
+  </si>
+  <si>
+    <t>(SAI_ID, DT_ID)</t>
+  </si>
+  <si>
+    <t>SAI_CUST</t>
+  </si>
+  <si>
+    <t>IDX_FIN_TI_COMP</t>
+  </si>
+  <si>
+    <t>(TI_DTCANC, TI_SD)</t>
+  </si>
+  <si>
+    <t>TI_ID, LJ_ID, TI_DTEMIS, 
+TI_DTVENC, DC_ID</t>
+  </si>
+  <si>
+    <t>IDX_FIN_TI_COMP2</t>
+  </si>
+  <si>
+    <t>(LJ_ID, TI_DTCANC, TI_SD, DC_ID)</t>
+  </si>
+  <si>
+    <t>TI_DTEMIS, TI_DTVENC</t>
+  </si>
+  <si>
+    <t>SAI_ID,SAI_TOT,
+SAI_DT,SAI_VLIPI,
+SAI_VLICMSRT,SAI_VLACR,
+SAI_VLFR,SAI_ACESSORIAS</t>
+  </si>
+  <si>
+    <t>INDICES DO DASHBOARD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +329,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +347,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,10 +424,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -376,6 +488,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,8 +515,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Ênfase1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,29 +817,29 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="G1" s="1"/>
       <c r="K1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -719,7 +856,7 @@
       <c r="K2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -736,7 +873,7 @@
       <c r="K3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
@@ -753,7 +890,7 @@
       <c r="K4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -770,41 +907,41 @@
       <c r="K5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="G6" s="5"/>
       <c r="K6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="G7" s="5"/>
       <c r="K7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -813,7 +950,7 @@
       <c r="K8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -822,7 +959,7 @@
       <c r="K9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -831,7 +968,7 @@
       <c r="K10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -840,7 +977,7 @@
       <c r="K11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -849,7 +986,7 @@
       <c r="K12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -858,7 +995,7 @@
       <c r="K13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -867,7 +1004,7 @@
       <c r="K14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -876,7 +1013,7 @@
       <c r="K15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -885,7 +1022,7 @@
       <c r="K16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -894,7 +1031,7 @@
       <c r="K17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -902,7 +1039,7 @@
       <c r="K18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -910,7 +1047,7 @@
       <c r="K19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -918,7 +1055,7 @@
       <c r="K20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -926,7 +1063,7 @@
       <c r="K21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -934,7 +1071,7 @@
       <c r="K22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -942,7 +1079,7 @@
       <c r="K23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -950,7 +1087,7 @@
       <c r="K24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -958,7 +1095,7 @@
       <c r="K25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -966,32 +1103,32 @@
       <c r="K26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="G27" s="1"/>
       <c r="K27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="G28" s="1"/>
       <c r="K28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="K29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O32" s="1"/>
     </row>
   </sheetData>
@@ -1007,1538 +1144,1538 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="47" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="4"/>
+    <col min="4" max="4" width="27.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="18" t="s">
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
     </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
     </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
     </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
     </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
     </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
     </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
     </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
     </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
     </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
     </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
     </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
     </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
     </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
     </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
     </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
     </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
     </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
     </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
     </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
     </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
     </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
     </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
     </row>
-    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
     </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
     </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
     </row>
-    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="19"/>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
     </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
       <c r="C112" s="20"/>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
     </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
     </row>
-    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
     </row>
-    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="19"/>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
     </row>
-    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
     </row>
-    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="19"/>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
     </row>
-    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="19"/>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
     </row>
-    <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
     </row>
-    <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
     </row>
-    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
       <c r="C122" s="20"/>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
     </row>
-    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="20"/>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
     </row>
-    <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
     </row>
-    <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
     </row>
-    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
     </row>
-    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="20"/>
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
     </row>
-    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
     </row>
-    <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
     </row>
-    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="20"/>
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
     </row>
-    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
     </row>
-    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
     </row>
-    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="20"/>
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
     </row>
-    <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="20"/>
       <c r="D134" s="20"/>
       <c r="E134" s="20"/>
     </row>
-    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
     </row>
-    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="20"/>
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
     </row>
-    <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="20"/>
       <c r="D137" s="20"/>
       <c r="E137" s="20"/>
     </row>
-    <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="20"/>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
     </row>
-    <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
     </row>
-    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
     </row>
-    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="20"/>
     </row>
-    <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
     </row>
-    <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
     </row>
-    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="20"/>
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
     </row>
-    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="20"/>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
     </row>
-    <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="20"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
     </row>
-    <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
     </row>
-    <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
     </row>
-    <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="20"/>
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
     </row>
-    <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="20"/>
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
     </row>
-    <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="20"/>
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
     </row>
-    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
     </row>
-    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
     </row>
-    <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="20"/>
       <c r="D154" s="20"/>
       <c r="E154" s="20"/>
     </row>
-    <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="20"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
     </row>
-    <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="20"/>
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
     </row>
-    <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="20"/>
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
     </row>
-    <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
     </row>
-    <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
     </row>
-    <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
     </row>
-    <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
     </row>
-    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
     </row>
-    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
     </row>
-    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
     </row>
-    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="20"/>
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
     </row>
-    <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="20"/>
       <c r="D166" s="20"/>
       <c r="E166" s="20"/>
     </row>
-    <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="20"/>
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
     </row>
-    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="20"/>
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
     </row>
-    <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="20"/>
       <c r="D169" s="20"/>
       <c r="E169" s="20"/>
     </row>
-    <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="20"/>
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
     </row>
-    <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="20"/>
       <c r="D171" s="20"/>
       <c r="E171" s="20"/>
     </row>
-    <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="20"/>
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
     </row>
-    <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="20"/>
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
     </row>
-    <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
     </row>
-    <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
     </row>
-    <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
       <c r="E176" s="20"/>
     </row>
-    <row r="177" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
       <c r="E177" s="20"/>
     </row>
-    <row r="178" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="20"/>
       <c r="D178" s="20"/>
       <c r="E178" s="20"/>
     </row>
-    <row r="179" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
       <c r="E179" s="20"/>
     </row>
-    <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
       <c r="E180" s="20"/>
     </row>
-    <row r="181" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
       <c r="E181" s="20"/>
     </row>
-    <row r="182" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
       <c r="E182" s="20"/>
     </row>
-    <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
       <c r="E183" s="20"/>
     </row>
-    <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
       <c r="E184" s="20"/>
     </row>
-    <row r="185" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
       <c r="E185" s="20"/>
     </row>
-    <row r="186" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="20"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
     </row>
-    <row r="187" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="20"/>
       <c r="D187" s="20"/>
       <c r="E187" s="20"/>
     </row>
-    <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="20"/>
       <c r="D188" s="20"/>
       <c r="E188" s="20"/>
     </row>
-    <row r="189" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="20"/>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
     </row>
-    <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="20"/>
       <c r="D190" s="20"/>
       <c r="E190" s="20"/>
     </row>
-    <row r="191" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="20"/>
       <c r="D191" s="20"/>
       <c r="E191" s="20"/>
     </row>
-    <row r="192" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="20"/>
       <c r="D192" s="20"/>
       <c r="E192" s="20"/>
     </row>
-    <row r="193" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="19"/>
       <c r="B193" s="19"/>
       <c r="C193" s="20"/>
       <c r="D193" s="20"/>
       <c r="E193" s="20"/>
     </row>
-    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="19"/>
       <c r="B194" s="19"/>
       <c r="C194" s="20"/>
       <c r="D194" s="20"/>
       <c r="E194" s="20"/>
     </row>
-    <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="19"/>
       <c r="B195" s="19"/>
       <c r="C195" s="20"/>
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
     </row>
-    <row r="196" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="19"/>
       <c r="B196" s="19"/>
       <c r="C196" s="20"/>
       <c r="D196" s="20"/>
       <c r="E196" s="20"/>
     </row>
-    <row r="197" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="19"/>
       <c r="B197" s="19"/>
       <c r="C197" s="20"/>
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
     </row>
-    <row r="198" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="19"/>
       <c r="B198" s="19"/>
       <c r="C198" s="20"/>
       <c r="D198" s="20"/>
       <c r="E198" s="20"/>
     </row>
-    <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="19"/>
       <c r="B199" s="19"/>
       <c r="C199" s="20"/>
       <c r="D199" s="20"/>
       <c r="E199" s="20"/>
     </row>
-    <row r="200" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="19"/>
       <c r="B200" s="19"/>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
       <c r="E200" s="20"/>
     </row>
-    <row r="201" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="19"/>
       <c r="B201" s="19"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
       <c r="E201" s="20"/>
     </row>
-    <row r="202" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="19"/>
       <c r="B202" s="19"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
       <c r="E202" s="20"/>
     </row>
-    <row r="203" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="19"/>
       <c r="B203" s="19"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
       <c r="E203" s="20"/>
     </row>
-    <row r="204" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="19"/>
       <c r="B204" s="19"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
       <c r="E204" s="20"/>
     </row>
-    <row r="205" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="19"/>
       <c r="B205" s="19"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
     </row>
-    <row r="206" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="19"/>
       <c r="B206" s="19"/>
       <c r="C206" s="20"/>
@@ -2551,4 +2688,265 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+    </row>
+    <row r="18" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+    </row>
+    <row r="19" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+    </row>
+    <row r="20" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+    </row>
+    <row r="21" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+    </row>
+    <row r="22" spans="1:1" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+    </row>
+    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>